--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.8632"/>
+  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.8897"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="11040"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="10545"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="실시간 학생수" sheetId="1" r:id="rId4"/>
@@ -21,79 +21,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <x:si>
+    <x:t>총계</x:t>
+  </x:si>
+  <x:si>
     <x:t>반</x:t>
   </x:si>
   <x:si>
+    <x:t>남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학년</x:t>
+  </x:si>
+  <x:si>
     <x:t>여</x:t>
   </x:si>
   <x:si>
-    <x:t>학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총계</x:t>
+    <x:t>2022학년도 실시간 학생수(8월 15일자)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3학년합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1학년합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2학년합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4학년합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6학년합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5학년합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2반</x:t>
   </x:si>
   <x:si>
     <x:t>2학년</x:t>
   </x:si>
   <x:si>
-    <x:t>합계</x:t>
+    <x:t>6반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5반</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3반</x:t>
   </x:si>
   <x:si>
     <x:t>3학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6반</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1학년합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2학년합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4학년합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6학년합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5학년합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3학년합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022학년도 실시간 학생수(7월 04일자)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1297,7 +1297,7 @@
   <x:dimension ref="A1:E39"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C5" activeCellId="0" sqref="C5:C5"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:E1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="21" customHeight="1"/>
@@ -1312,7 +1312,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="42.75" customHeight="1">
       <x:c r="A1" s="16" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="16"/>
       <x:c r="C1" s="16"/>
@@ -1321,27 +1321,27 @@
     </x:row>
     <x:row r="2" spans="1:5" customHeight="1">
       <x:c r="A2" s="10" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="12" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="11" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="12" t="s">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="D2" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E2" s="13" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" customHeight="1">
       <x:c r="A3" s="21" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B3" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="14">
         <x:v>12</x:v>
@@ -1357,7 +1357,7 @@
     <x:row r="4" spans="1:5" customHeight="1">
       <x:c r="A4" s="17"/>
       <x:c r="B4" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>12</x:v>
@@ -1373,54 +1373,54 @@
     <x:row r="5" spans="1:5" customHeight="1">
       <x:c r="A5" s="17"/>
       <x:c r="B5" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D5" s="2">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="3">
         <x:f>C5+D5</x:f>
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5" customHeight="1">
       <x:c r="A6" s="17"/>
       <x:c r="B6" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C6" s="2">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D6" s="2">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:f>C6+D6</x:f>
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" customHeight="1">
       <x:c r="A7" s="17"/>
       <x:c r="B7" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="2">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="2">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E7" s="3">
         <x:f>C7+D7</x:f>
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" customHeight="1">
       <x:c r="A8" s="17" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="18"/>
       <x:c r="C8" s="2">
@@ -1429,19 +1429,19 @@
       </x:c>
       <x:c r="D8" s="2">
         <x:f>SUM(D3:D7)</x:f>
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:f>C8+D8</x:f>
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" customHeight="1">
       <x:c r="A9" s="17" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B9" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C9" s="6">
         <x:v>14</x:v>
@@ -1457,7 +1457,7 @@
     <x:row r="10" spans="1:5" customHeight="1">
       <x:c r="A10" s="17"/>
       <x:c r="B10" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="6">
         <x:v>14</x:v>
@@ -1473,23 +1473,23 @@
     <x:row r="11" spans="1:5" customHeight="1">
       <x:c r="A11" s="17"/>
       <x:c r="B11" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C11" s="2">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="2">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:f>C11+D11</x:f>
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" customHeight="1">
       <x:c r="A12" s="17"/>
       <x:c r="B12" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C12" s="6">
         <x:v>14</x:v>
@@ -1504,12 +1504,12 @@
     </x:row>
     <x:row r="13" spans="1:5" customHeight="1">
       <x:c r="A13" s="17" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="18"/>
       <x:c r="C13" s="2">
         <x:f>SUM(C9:C12)</x:f>
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D13" s="2">
         <x:f>SUM(D9:D12)</x:f>
@@ -1517,31 +1517,31 @@
       </x:c>
       <x:c r="E13" s="3">
         <x:f>C13+D13</x:f>
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5" customHeight="1">
       <x:c r="A14" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C14" s="2">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D14" s="2">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:f>C14+D14</x:f>
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" customHeight="1">
       <x:c r="A15" s="17"/>
       <x:c r="B15" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C15" s="2">
         <x:v>13</x:v>
@@ -1557,7 +1557,7 @@
     <x:row r="16" spans="1:5" customHeight="1">
       <x:c r="A16" s="17"/>
       <x:c r="B16" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C16" s="2">
         <x:v>13</x:v>
@@ -1573,13 +1573,13 @@
     <x:row r="17" spans="1:5" customHeight="1">
       <x:c r="A17" s="17"/>
       <x:c r="B17" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C17" s="2">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D17" s="2">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:f>C17+D17</x:f>
@@ -1589,7 +1589,7 @@
     <x:row r="18" spans="1:5" customHeight="1">
       <x:c r="A18" s="17"/>
       <x:c r="B18" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="2">
         <x:v>11</x:v>
@@ -1604,12 +1604,12 @@
     </x:row>
     <x:row r="19" spans="1:5" customHeight="1">
       <x:c r="A19" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="18"/>
       <x:c r="C19" s="2">
         <x:f>SUM(C14:C18)</x:f>
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D19" s="2">
         <x:f>SUM(D14:D18)</x:f>
@@ -1617,15 +1617,15 @@
       </x:c>
       <x:c r="E19" s="3">
         <x:f>C19+D19</x:f>
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5" customHeight="1">
       <x:c r="A20" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C20" s="6">
         <x:v>13</x:v>
@@ -1641,7 +1641,7 @@
     <x:row r="21" spans="1:5" customHeight="1">
       <x:c r="A21" s="17"/>
       <x:c r="B21" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="2">
         <x:v>13</x:v>
@@ -1657,7 +1657,7 @@
     <x:row r="22" spans="1:5" customHeight="1">
       <x:c r="A22" s="17"/>
       <x:c r="B22" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="2">
         <x:v>13</x:v>
@@ -1673,7 +1673,7 @@
     <x:row r="23" spans="1:5" customHeight="1">
       <x:c r="A23" s="17"/>
       <x:c r="B23" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C23" s="6">
         <x:v>12</x:v>
@@ -1689,17 +1689,17 @@
     <x:row r="24" spans="1:5" customHeight="1">
       <x:c r="A24" s="17"/>
       <x:c r="B24" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="6">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="6">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E24" s="8">
         <x:f>C24+D24</x:f>
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5" customHeight="1">
@@ -1711,16 +1711,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="2">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:f>C25+D25</x:f>
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5" customHeight="1">
       <x:c r="A26" s="17" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B26" s="18"/>
       <x:c r="C26" s="2">
@@ -1729,35 +1729,35 @@
       </x:c>
       <x:c r="D26" s="2">
         <x:f>SUM(D20:D25)</x:f>
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:f>C26+D26</x:f>
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5" customHeight="1">
       <x:c r="A27" s="17" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B27" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C27" s="6">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D27" s="6">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E27" s="8">
         <x:f>C27+D27</x:f>
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5" customHeight="1">
       <x:c r="A28" s="17"/>
       <x:c r="B28" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C28" s="7">
         <x:v>14</x:v>
@@ -1773,7 +1773,7 @@
     <x:row r="29" spans="1:5" customHeight="1">
       <x:c r="A29" s="17"/>
       <x:c r="B29" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C29" s="6">
         <x:v>14</x:v>
@@ -1789,7 +1789,7 @@
     <x:row r="30" spans="1:5" customHeight="1">
       <x:c r="A30" s="17"/>
       <x:c r="B30" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C30" s="7">
         <x:v>14</x:v>
@@ -1805,31 +1805,31 @@
     <x:row r="31" spans="1:5" customHeight="1">
       <x:c r="A31" s="17"/>
       <x:c r="B31" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C31" s="6">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D31" s="6">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E31" s="8">
         <x:f>C31+D31</x:f>
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5" customHeight="1">
       <x:c r="A32" s="17" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B32" s="18"/>
       <x:c r="C32" s="2">
         <x:f>SUM(C27:C31)</x:f>
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D32" s="2">
         <x:f>SUM(D27:D31)</x:f>
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:f>C32+D32</x:f>
@@ -1838,26 +1838,26 @@
     </x:row>
     <x:row r="33" spans="1:5" customHeight="1">
       <x:c r="A33" s="17" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C33" s="2">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D33" s="2">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:f>C33+D33</x:f>
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5" customHeight="1">
       <x:c r="A34" s="17"/>
       <x:c r="B34" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C34" s="2">
         <x:v>15</x:v>
@@ -1873,7 +1873,7 @@
     <x:row r="35" spans="1:5" customHeight="1">
       <x:c r="A35" s="17"/>
       <x:c r="B35" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:v>15</x:v>
@@ -1889,7 +1889,7 @@
     <x:row r="36" spans="1:5" customHeight="1">
       <x:c r="A36" s="17"/>
       <x:c r="B36" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C36" s="2">
         <x:v>15</x:v>
@@ -1905,7 +1905,7 @@
     <x:row r="37" spans="1:5" customHeight="1">
       <x:c r="A37" s="17"/>
       <x:c r="B37" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C37" s="6">
         <x:v>15</x:v>
@@ -1920,7 +1920,7 @@
     </x:row>
     <x:row r="38" spans="1:5" customHeight="1">
       <x:c r="A38" s="17" t="s">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B38" s="18"/>
       <x:c r="C38" s="2">
@@ -1929,29 +1929,29 @@
       </x:c>
       <x:c r="D38" s="2">
         <x:f>SUM(D33:D37)</x:f>
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:f>C38+D38</x:f>
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5" customHeight="1">
       <x:c r="A39" s="19" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="20"/>
       <x:c r="C39" s="4">
         <x:f>C8+C13+C19+C26+C32+C38</x:f>
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="D39" s="4">
         <x:f>D8+D13+D19+D26+D32+D38</x:f>
-        <x:v>354</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="E39" s="5">
         <x:f>E8+E13+E19+E26+E32+E38</x:f>
-        <x:v>755</x:v>
+        <x:v>753</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
